--- a/junk_words.xlsx
+++ b/junk_words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarrahi_mm/Documents/SUT/8 Modern Information Retrieval/SUT_MIR_C1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8B8F20-327C-EF4E-8B83-9F6FCD6F1DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE027E74-850D-2043-B560-5886551CEA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2700" windowWidth="10000" windowHeight="16940" xr2:uid="{D36F0CFF-FA29-1544-8A2A-7FC57DF3D724}"/>
+    <workbookView xWindow="11560" yWindow="-18520" windowWidth="10000" windowHeight="16940" xr2:uid="{D36F0CFF-FA29-1544-8A2A-7FC57DF3D724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,111 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>لیست بخش‌های تکراری اسامی</t>
-  </si>
-  <si>
-    <t>سرمایه گذاری</t>
-  </si>
-  <si>
-    <t>استان</t>
-  </si>
-  <si>
-    <t>ایران</t>
-  </si>
-  <si>
-    <t>پالایش</t>
-  </si>
-  <si>
-    <t>گروه</t>
-  </si>
-  <si>
-    <t>تولید</t>
-  </si>
-  <si>
-    <t>فولاد</t>
   </si>
   <si>
     <t>اصفهان</t>
   </si>
   <si>
-    <t>لیزینگ</t>
-  </si>
-  <si>
-    <t>ملی</t>
-  </si>
-  <si>
-    <t>بیمه</t>
-  </si>
-  <si>
-    <t>صنایع</t>
-  </si>
-  <si>
-    <t>جمهوری اسلامی</t>
-  </si>
-  <si>
-    <t>پتروشیمی</t>
-  </si>
-  <si>
-    <t>دارویی</t>
-  </si>
-  <si>
-    <t>تامین</t>
-  </si>
-  <si>
-    <t>تولیدی</t>
-  </si>
-  <si>
-    <t>بین المللی</t>
-  </si>
-  <si>
-    <t>دامداری</t>
-  </si>
-  <si>
-    <t>هلدینگ</t>
-  </si>
-  <si>
-    <t>اقتصادی</t>
-  </si>
-  <si>
-    <t>سیمان</t>
-  </si>
-  <si>
-    <t>شهید</t>
-  </si>
-  <si>
-    <t>نیرو</t>
-  </si>
-  <si>
-    <t>نیروی</t>
-  </si>
-  <si>
-    <t>عمران</t>
-  </si>
-  <si>
-    <t>توسعه</t>
-  </si>
-  <si>
-    <t>جهان</t>
-  </si>
-  <si>
-    <t>تامین سرمایه</t>
-  </si>
-  <si>
-    <t>فراورده</t>
-  </si>
-  <si>
-    <t>ها</t>
-  </si>
-  <si>
-    <t>های</t>
-  </si>
-  <si>
-    <t>مدیریت</t>
-  </si>
-  <si>
-    <t>نیروگاه</t>
+    <t>نفت</t>
   </si>
 </sst>
 </file>
@@ -498,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6843B9-ACD7-D047-BCB9-D51EA433A5CE}">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,166 +428,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
